--- a/TC_BR.xlsx
+++ b/TC_BR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Number</t>
   </si>
@@ -85,6 +85,94 @@
       <t xml:space="preserve">
 Bugs: BR-1</t>
     </r>
+  </si>
+  <si>
+    <t>Заказ продукта "сейчас"</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>Заказ продукта "в будущем"</t>
+  </si>
+  <si>
+    <t>Запущена программа
+На складе нет продукта "Рис"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Повар делает заказ на продукт "Рис" количестве 7 кг
+2. Снабженец покупает продукт "Рис", 7 кг и доставляет на склад
+3. Кладовщик принимает на склад 7 кг "Риса" </t>
+  </si>
+  <si>
+    <t>На складе имеется 7 кг "Риса"</t>
+  </si>
+  <si>
+    <t>Запущена программа
+На складе есть продукт "Консервированный горошек" 1 б.</t>
+  </si>
+  <si>
+    <t>1. Повар делает заказ на продукт "Консервированный горошек" 2 б.
+2. Кладовщик со склада доставляет 1 б. "Консервированного горошка" на кухню</t>
+  </si>
+  <si>
+    <t>На кухне имеется 1 б. "Консервированного горошка"</t>
+  </si>
+  <si>
+    <t>Запущена программа
+На складе есть продукт "Сливочное масло 82% жирн." в количестве 2 п.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Повар делает заказ на продукт "Сливочное масло" в количестве 5 п.
+2. Снабженец покупает продукт "Сливочное масло 82% жирн." в количестве 3 п. и доставляет на склад
+3. Кладовщик принимает на склад 3 п.  "Сливочного масло 82% жирн." </t>
+  </si>
+  <si>
+    <t>На складе имеется 5 п. "Сливочного масло 82% жирн."</t>
+  </si>
+  <si>
+    <t>Запущена программа
+На складе нет продукта "Свежая форель"</t>
+  </si>
+  <si>
+    <t>1. Повар делает заказ на продукт "Свежая форель" количестве 2 шт.</t>
+  </si>
+  <si>
+    <t>Выходит предупреждение, что такого продукта нет на складе</t>
+  </si>
+  <si>
+    <t>Запущена программа
+На складе есть продукт "Картофель"</t>
+  </si>
+  <si>
+    <t>1. Повар делает заказ на продукт "Картофель" количестве 3 кг
+2. Кладовщик со склада доставляет 3 кг "Картофеля" на кухню</t>
+  </si>
+  <si>
+    <t>На кухне имеется 3 кг "Картофеля"</t>
+  </si>
+  <si>
+    <t>Запущена программа
+На складе есть продукт "Подсолнечное масло "Аведов""</t>
+  </si>
+  <si>
+    <t>1. Повар делает заказ на продукт "Подсолнечное масло "Аведов"" количестве 1 шт
+2. Кладовщик со склада доставляет одно "Подсолнечное масло "Аведов"" на кухню</t>
+  </si>
+  <si>
+    <t>На кухне имеется одно "Подсолнечное масло "Аведов""</t>
   </si>
 </sst>
 </file>
@@ -171,14 +259,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,13 +308,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -238,10 +323,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,7 +637,7 @@
     <col min="1" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,30 +666,159 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="89.25">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="127.5">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:9" ht="114.75">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="165.75">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="102">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -618,7 +835,7 @@
     <col min="1" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,19 +868,19 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TC_BR.xlsx
+++ b/TC_BR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test-cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Number</t>
   </si>
@@ -108,10 +108,6 @@
     <t>Заказ продукта "в будущем"</t>
   </si>
   <si>
-    <t>Запущена программа
-На складе нет продукта "Рис"</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Повар делает заказ на продукт "Рис" количестве 7 кг
 2. Снабженец покупает продукт "Рис", 7 кг и доставляет на склад
 3. Кладовщик принимает на склад 7 кг "Риса" </t>
@@ -120,21 +116,6 @@
     <t>На складе имеется 7 кг "Риса"</t>
   </si>
   <si>
-    <t>Запущена программа
-На складе есть продукт "Консервированный горошек" 1 б.</t>
-  </si>
-  <si>
-    <t>1. Повар делает заказ на продукт "Консервированный горошек" 2 б.
-2. Кладовщик со склада доставляет 1 б. "Консервированного горошка" на кухню</t>
-  </si>
-  <si>
-    <t>На кухне имеется 1 б. "Консервированного горошка"</t>
-  </si>
-  <si>
-    <t>Запущена программа
-На складе есть продукт "Сливочное масло 82% жирн." в количестве 2 п.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Повар делает заказ на продукт "Сливочное масло" в количестве 5 п.
 2. Снабженец покупает продукт "Сливочное масло 82% жирн." в количестве 3 п. и доставляет на склад
 3. Кладовщик принимает на склад 3 п.  "Сливочного масло 82% жирн." </t>
@@ -143,18 +124,10 @@
     <t>На складе имеется 5 п. "Сливочного масло 82% жирн."</t>
   </si>
   <si>
-    <t>Запущена программа
-На складе нет продукта "Свежая форель"</t>
-  </si>
-  <si>
     <t>1. Повар делает заказ на продукт "Свежая форель" количестве 2 шт.</t>
   </si>
   <si>
     <t>Выходит предупреждение, что такого продукта нет на складе</t>
-  </si>
-  <si>
-    <t>Запущена программа
-На складе есть продукт "Картофель"</t>
   </si>
   <si>
     <t>1. Повар делает заказ на продукт "Картофель" количестве 3 кг
@@ -164,22 +137,246 @@
     <t>На кухне имеется 3 кг "Картофеля"</t>
   </si>
   <si>
-    <t>Запущена программа
-На складе есть продукт "Подсолнечное масло "Аведов""</t>
-  </si>
-  <si>
     <t>1. Повар делает заказ на продукт "Подсолнечное масло "Аведов"" количестве 1 шт
 2. Кладовщик со склада доставляет одно "Подсолнечное масло "Аведов"" на кухню</t>
   </si>
   <si>
     <t>На кухне имеется одно "Подсолнечное масло "Аведов""</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Windows 7 Ultimate SP1
+Firefox 95.0.2 (64-bit)
+restaurant-0.0.1-SNAPSHOT-jre11</t>
+  </si>
+  <si>
+    <t>Запущена программа
+Загружен список продуктов
+На складе есть продукт "Картофель"</t>
+  </si>
+  <si>
+    <t>Запущена программа
+Загружен список продуктов
+На складе есть продукт "Подсолнечное масло "Аведов""</t>
+  </si>
+  <si>
+    <t>Запущена программа
+Загружен список продуктов
+На складе нет продукта "Рис"</t>
+  </si>
+  <si>
+    <t>Запущена программа
+Загружен список продуктов
+На складе есть продукт "Сливочное масло 82% жирн." в количестве 2 п.</t>
+  </si>
+  <si>
+    <t>Запущена программа
+Загружен список продуктов
+На складе есть продукт "Консервированный горошек" 1 б.</t>
+  </si>
+  <si>
+    <t>Запущена программа
+Загружен список продуктов
+На складе нет продукта "Свежая форель"</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Уточнить, можно ли удалять продукты со склада</t>
+  </si>
+  <si>
+    <t>Уточнить, что должна делать программа при наличии на складе продукта в недостаточном количестве</t>
+  </si>
+  <si>
+    <t>Программа при заказе "в будущем" не учитывает количество продукта на складе</t>
+  </si>
+  <si>
+    <t>BR-1.gif</t>
+  </si>
+  <si>
+    <t>BR-002</t>
+  </si>
+  <si>
+    <t>Программа при заказе "в будущем" не показывает продукт в окне Снабженца</t>
+  </si>
+  <si>
+    <t>Запущена программа
+Загружен список продуктов
+На складе нет продукта "Картофель"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снабженец не видит заказ в своём списке и не может принять заказ в работу </t>
+  </si>
+  <si>
+    <t>BR-2.gif</t>
+  </si>
+  <si>
+    <t>BR-003</t>
+  </si>
+  <si>
+    <t>После удаления заказа в АРМ повара, список Продукты ограничивается в размере и не скролируется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запущена программа
+Загружен список продуктов
+</t>
+  </si>
+  <si>
+    <t>В окне АРМ Снабженец получает заказ на 5 п. После закупки на складе имеется  7 п. "Сливочного масла 82% жирн."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снабженец видит в окне АРМ Снабженецазаказ в своём списке и может принять заказ в работу </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В окне АРМ Повара сделать заказ "в будущем" на продукт "Сливочного масло 82% жирн." в количестве 5 п.
+2. В окне АРМ Снабженца принять продукт "Сливочное масло 82% жирн." в количестве 3 п. в работу и доставить на склад
+3.В окне АРМ Кладовщика принять на склад 3 п.  "Сливочного масло 82% жирн." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В окне АРМ Повара сделать  заказ "в будущем" на продукт "Картофель" в количестве 10.
+</t>
+  </si>
+  <si>
+    <t>Заказ отображается в списке "Заказы"
+Такое поведение проявилось после наскольких операций по BR-001 и удаления продукта из списка поваром</t>
+  </si>
+  <si>
+    <t>BR-3.1.gif
+BR-3.2.png
+BR-3.3.png</t>
+  </si>
+  <si>
+    <t>1. Просмотреть окно Продукты
+2. В окне АРМ 
+Повара сделать  заказ "в будущем" на продукт "Картофель" в количестве 10.
+3. В окне АРМ Повара удалить  заказ "в будущем" на продукт "Картофель" в количестве 10.
+4.  Просмотреть окно Продукты</t>
+  </si>
+  <si>
+    <t>В окне Продукты высвечивается полный список продуктов, список можно проскролировать</t>
+  </si>
+  <si>
+    <t>В окне Продукты высвечивается ограниченный список продуктов, список нельзя проскролировать</t>
+  </si>
+  <si>
+    <t>Windows 7 Ultimate SP1
+Firefox 95.0.2 (64-bit)
+restaurant-0.0.1-SNAPSHOT-jre11
+Chrome Version 96.0.4664.110</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Fail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+Bugs: BR-4</t>
+    </r>
+  </si>
+  <si>
+    <t>BR-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запущена программа
+Загружен список продуктов
+На складе есть продукт "Консервированный горошек" 1 б.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сортировка работает
+Окно восстанавливается после обновления страницы
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Повар делает заказ на продукт "Консервированный горошек" 2 б.
+</t>
+  </si>
+  <si>
+    <t>Выходит предупреждение, что такого продукта на складе не достаточное количество</t>
+  </si>
+  <si>
+    <t>BR-4.1.png
+BR-4.2.png
+BR-4.3.png</t>
+  </si>
+  <si>
+    <t>Программа, при срочном заказе, не выдаёт предупреждение о недостатке продукта на складе</t>
+  </si>
+  <si>
+    <t>Программа, при срочном заказе, не выдаёт предупреждение об отсутствии продукта на складе</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Fail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+Bugs: BR-5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В окне АРМ 
+Повара сделать  заказ на продукт "Свежая форель" 2. Отметить "Доставить немедленно"
+</t>
+  </si>
+  <si>
+    <t>Заказ передаётся в АРМ Кладовщика и, при обработке, появляется предупреждение о недостаточном количестве на складе, с предложением сделать заказ на поставку продукта</t>
+  </si>
+  <si>
+    <t>1. В окне АРМ 
+Повара сделать  заказ на продукт "Консервированный горошек" 2 б.
+2. Отметить "Доставить немедленно"</t>
+  </si>
+  <si>
+    <t>Выходит предупреждение, что такого продукта на складе нет</t>
+  </si>
+  <si>
+    <t>BR-5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 7 Ultimate SP1
+Firefox 95.0.2 (64-bit)
+restaurant-0.0.1-SNAPSHOT-jre11
+</t>
+  </si>
+  <si>
+    <t>BR-005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +433,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -297,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -331,6 +535,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,18 +842,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,8 +883,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="89.25">
+    <row r="2" spans="1:10" ht="89.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -680,18 +901,21 @@
         <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="I2" s="10"/>
+      <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="127.5">
+    <row r="3" spans="1:10" ht="127.5">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -702,21 +926,24 @@
         <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="I3" s="10"/>
+      <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="114.75">
+    <row r="4" spans="1:10" ht="114.75">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -727,46 +954,56 @@
         <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="I4" s="10"/>
+      <c r="J4" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="165.75">
+    <row r="5" spans="1:10" ht="165.75">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="I5" s="10"/>
+      <c r="J5" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="102">
+    <row r="6" spans="1:10" ht="89.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -777,21 +1014,24 @@
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="51">
+    <row r="7" spans="1:10" ht="76.5">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -802,19 +1042,22 @@
         <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9"/>
       <c r="I7" s="10"/>
+      <c r="J7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,15 +1067,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10" width="17.140625" customWidth="1"/>
+    <col min="1" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
@@ -867,20 +1113,161 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="280.5">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="127.5">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="229.5">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="153">
+      <c r="A5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="153">
+      <c r="A6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
